--- a/Calificaciones/Promedio.xlsx
+++ b/Calificaciones/Promedio.xlsx
@@ -39,8 +39,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -68,8 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -366,7 +375,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -374,7 +383,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -388,12 +397,15 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>AVERAGE(B1:B3)</f>
-        <v>6.666666666666667</v>
+        <v>12</v>
       </c>
       <c r="D4" t="str">
-        <f>IF(B4&gt;6,"Aprobado","Reprobado")</f>
-        <v>Aprobado</v>
-      </c>
+        <f>IF(AND(B4&lt;0,B4&gt;10),"Aprobado",IF(B4&gt;6,"Valor invalido","Reprobado"))</f>
+        <v>Valor invalido</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calificaciones/Promedio.xlsx
+++ b/Calificaciones/Promedio.xlsx
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,23 +370,23 @@
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -394,18 +394,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>AVERAGE(B1:B3)</f>
-        <v>12</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D4" t="str">
-        <f>IF(AND(B4&lt;0,B4&gt;10),"Aprobado",IF(B4&gt;6,"Valor invalido","Reprobado"))</f>
-        <v>Valor invalido</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(OR(B4&lt;0,B4&gt;10),"Valor invalido",IF(B4&gt;6,"Aprobado","Reprobado"))</f>
+        <v>Reprobado</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calificaciones/Promedio.xlsx
+++ b/Calificaciones/Promedio.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,7 +383,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -397,7 +397,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>AVERAGE(B1:B3)</f>
-        <v>4.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="D4" t="str">
         <f>IF(OR(B4&lt;0,B4&gt;10),"Valor invalido",IF(B4&gt;6,"Aprobado","Reprobado"))</f>
